--- a/CC.xlsx
+++ b/CC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,495 +463,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XRP_lag2</t>
+          <t>Bitcoin_lag6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008087486955222703</v>
+        <v>0.04785556610921152</v>
       </c>
       <c r="C2" t="n">
-        <v>15.16162294715751</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D2" t="n">
-        <v>3.422168808539921</v>
+        <v>0.1823390678324038</v>
       </c>
       <c r="E2" t="n">
-        <v>77.4287434764264</v>
+        <v>33.76615851446464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cardano_lag2</t>
+          <t>Cardano_lag5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01209839884315163</v>
+        <v>0.0001003853817368582</v>
       </c>
       <c r="C3" t="n">
-        <v>15.16162294715751</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D3" t="n">
-        <v>4.120120467488455</v>
+        <v>0.288386410224558</v>
       </c>
       <c r="E3" t="n">
-        <v>72.82533352894855</v>
+        <v>-4.755058849771597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cardano_lag4</t>
+          <t>Dogecoin_lag5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01270627456948943</v>
+        <v>0.04957879189151794</v>
       </c>
       <c r="C4" t="n">
-        <v>15.16162294715751</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D4" t="n">
-        <v>4.243257178140127</v>
+        <v>0.3475696910569859</v>
       </c>
       <c r="E4" t="n">
-        <v>72.01317304269429</v>
+        <v>-26.25311786613088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Litecoin_lag2</t>
+          <t>Dogecoin_lag6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02455702727185979</v>
+        <v>0.007205401414575935</v>
       </c>
       <c r="C5" t="n">
-        <v>15.16162294715751</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D5" t="n">
-        <v>4.36276308594769</v>
+        <v>0.4333951656947484</v>
       </c>
       <c r="E5" t="n">
-        <v>71.22495987960433</v>
+        <v>-57.42883325260706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>USD Coin_lag0</t>
+          <t>Cardano_lag6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02272072082379274</v>
+        <v>0.04942502509113088</v>
       </c>
       <c r="C6" t="n">
-        <v>15.16162294715751</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D6" t="n">
-        <v>4.703489277710278</v>
+        <v>0.4374155338755468</v>
       </c>
       <c r="E6" t="n">
-        <v>68.97766621618771</v>
+        <v>-58.88921380607817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Litecoin_lag4</t>
+          <t>Litecoin_lag5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02350320895386837</v>
+        <v>0.01018908302371104</v>
       </c>
       <c r="C7" t="n">
-        <v>15.16162294715751</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D7" t="n">
-        <v>4.84748141605057</v>
+        <v>0.4896093010971637</v>
       </c>
       <c r="E7" t="n">
-        <v>68.02795167149719</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Bitcoin_lag2</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0008013088843057112</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.879642768990012</v>
-      </c>
-      <c r="E8" t="n">
-        <v>67.81582825270796</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dogecoin_lag5</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.04397978595080557</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.324858153867682</v>
-      </c>
-      <c r="E9" t="n">
-        <v>64.87936566931984</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cardano_lag3</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.03436618036700217</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.354492512654217</v>
-      </c>
-      <c r="E10" t="n">
-        <v>64.6839092931138</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ethereum_lag2</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.002931288529467979</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.865499667777501</v>
-      </c>
-      <c r="E11" t="n">
-        <v>61.31351051124009</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Cardano_lag1</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.01919130862883578</v>
-      </c>
-      <c r="C12" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.184967355993109</v>
-      </c>
-      <c r="E12" t="n">
-        <v>59.2064294333829</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>XRP_lag4</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.03873791524062153</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.459641812650786</v>
-      </c>
-      <c r="E13" t="n">
-        <v>57.39478659267255</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cardano_lag6</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.02411900792834045</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.565172391650638</v>
-      </c>
-      <c r="E14" t="n">
-        <v>56.69874910798074</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Cardano_lag5</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.006308421867351422</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6.707181812856307</v>
-      </c>
-      <c r="E15" t="n">
-        <v>55.76211177238275</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Litecoin_lag5</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.01008139980465536</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6.984309066511045</v>
-      </c>
-      <c r="E16" t="n">
-        <v>53.93429126384878</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>XRP_lag0</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.005892261704844695</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10.45990148277759</v>
-      </c>
-      <c r="E17" t="n">
-        <v>31.01067399424676</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Bitcoin_lag4</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.041896345344266</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10.56757402108733</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30.30050900277443</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>USD Coin_lag2</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.00284783810187919</v>
-      </c>
-      <c r="C19" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11.70191004686317</v>
-      </c>
-      <c r="E19" t="n">
-        <v>22.81888233438069</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Dogecoin_lag4</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0005181416628033598</v>
-      </c>
-      <c r="C20" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13.11166778531597</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13.52068422349114</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>XRP_lag5</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.547947203606413e-16</v>
-      </c>
-      <c r="C21" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13.72930096643208</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.447022826761149</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Ethereum_lag5</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.589918092575588e-33</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13.77627831765835</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.137179009974549</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Bitcoin_lag5</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.02471931037750427</v>
-      </c>
-      <c r="C23" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D23" t="n">
-        <v>14.85046762788708</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.052256017412424</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Litecoin_lag6</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>7.922206445687466e-06</v>
-      </c>
-      <c r="C24" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D24" t="n">
-        <v>15.86551350078155</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-4.642580521078125</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Bitcoin_lag1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.04503273410014173</v>
-      </c>
-      <c r="C25" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D25" t="n">
-        <v>15.92788724443702</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-5.053972783455688</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ethereum_lag1</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.01951699544239027</v>
-      </c>
-      <c r="C26" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D26" t="n">
-        <v>16.43483242516014</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-8.397580407058831</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>XRP_lag6</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.02045222403931855</v>
-      </c>
-      <c r="C27" t="n">
-        <v>15.16162294715751</v>
-      </c>
-      <c r="D27" t="n">
-        <v>20.77953579550351</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-37.05350586758424</v>
+        <v>-77.84836362397122</v>
       </c>
     </row>
   </sheetData>
